--- a/data/eval_scores_dummy.xlsx
+++ b/data/eval_scores_dummy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\initi\Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\initi\Development\ranking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FC7DB-A01E-4159-BB72-C4DA2FE447E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0D9A4-2B8B-4BF7-A247-E467F05531F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D251358-1EA4-494F-9A13-C83C3F088627}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
